--- a/13. DP 3N31 (F4 BIRU TUA)/PESAN NAMETAG.xlsx
+++ b/13. DP 3N31 (F4 BIRU TUA)/PESAN NAMETAG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mapan\progress\13. DP 3N31 (F4 BIRU TUA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C3E68142-F528-4A32-A541-1CA30D96B76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83396FEC-0C67-4802-B8A8-A3C76A609974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DP 3 Nautika Angkatan 31" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t xml:space="preserve">FIRDAUS AKBAR </t>
   </si>
@@ -64,9 +64,6 @@
     <t>KAMIL B RAHMAN</t>
   </si>
   <si>
-    <t>HENDRI.R</t>
-  </si>
-  <si>
     <t>ANDRI SUPRAPTO</t>
   </si>
   <si>
@@ -104,13 +101,19 @@
   </si>
   <si>
     <t>DP 3 NAUTIKA/31</t>
+  </si>
+  <si>
+    <t>DARTO</t>
+  </si>
+  <si>
+    <t>HENDRI. R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +248,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -427,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -542,6 +558,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -587,11 +614,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -947,293 +991,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="370" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="159" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
+      <c r="C26" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1241,5 +1297,6 @@
     <sortCondition ref="B2:B25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>